--- a/excel/plantilla.xlsx
+++ b/excel/plantilla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>PORTADA</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Historia</t>
+  </si>
+  <si>
+    <t>RESENA</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +518,7 @@
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +552,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -585,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -620,7 +626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>

--- a/excel/plantilla.xlsx
+++ b/excel/plantilla.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>PORTADA</t>
   </si>
@@ -59,9 +59,6 @@
     <t>NIVEL_ESPECIALIZACION</t>
   </si>
   <si>
-    <t>Espacio, tiempo y arquitectura</t>
-  </si>
-  <si>
     <t>Space, Time &amp; Architecture: the growth of a new tradition</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Básico</t>
   </si>
   <si>
-    <t>Complejidad y contradicción en la arquitectura</t>
-  </si>
-  <si>
     <t>Complexity and contradiction in architecture</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Estados Unidos</t>
   </si>
   <si>
-    <t>Historia crítica de la arquitectura moderna</t>
-  </si>
-  <si>
     <t>Modern Architecture: A Critical History</t>
   </si>
   <si>
@@ -120,6 +111,12 @@
   </si>
   <si>
     <t>RESENA</t>
+  </si>
+  <si>
+    <t>El mejor libro del mundo.</t>
+  </si>
+  <si>
+    <t>asas</t>
   </si>
 </sst>
 </file>
@@ -176,12 +173,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A5:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,112 +551,119 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="2">
         <v>1941</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>1966</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1980</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
